--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -684,16 +684,16 @@
         <v>6.05</v>
       </c>
       <c r="H2">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I2">
         <v>6.05</v>
       </c>
       <c r="J2">
-        <v>171.5683333333333</v>
+        <v>171.57</v>
       </c>
       <c r="K2">
-        <v>124.1933333333333</v>
+        <v>124.19</v>
       </c>
       <c r="L2">
         <v>1.79</v>
@@ -711,19 +711,19 @@
         <v>6.75</v>
       </c>
       <c r="Q2">
-        <v>44.17266666666667</v>
+        <v>44.17</v>
       </c>
       <c r="R2">
-        <v>34.9325</v>
+        <v>34.93</v>
       </c>
       <c r="S2">
         <v>6.75</v>
       </c>
       <c r="T2">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
       <c r="U2">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V2">
         <v>105.05</v>
@@ -747,7 +747,7 @@
         <v>0.29</v>
       </c>
       <c r="AC2">
-        <v>32.74823529411765</v>
+        <v>32.75</v>
       </c>
       <c r="AD2">
         <v>9.06</v>
@@ -756,22 +756,22 @@
         <v>15.82</v>
       </c>
       <c r="AF2">
-        <v>216.1193333333333</v>
+        <v>216.12</v>
       </c>
       <c r="AG2">
-        <v>49.10538461538461</v>
+        <v>49.11</v>
       </c>
       <c r="AH2">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI2">
-        <v>105.736</v>
+        <v>105.74</v>
       </c>
       <c r="AJ2">
         <v>2.19</v>
       </c>
       <c r="AK2">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I3">
         <v>5.87</v>
@@ -824,19 +824,19 @@
         <v>7.58</v>
       </c>
       <c r="Q3">
-        <v>44.17266666666667</v>
+        <v>44.17</v>
       </c>
       <c r="R3">
-        <v>34.9325</v>
+        <v>34.93</v>
       </c>
       <c r="S3">
         <v>7.58</v>
       </c>
       <c r="T3">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
       <c r="U3">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V3">
         <v>105.05</v>
@@ -854,7 +854,7 @@
         <v>9.77</v>
       </c>
       <c r="AA3">
-        <v>8.114736842105264</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AB3">
         <v>0.63</v>
@@ -869,7 +869,7 @@
         <v>21.1</v>
       </c>
       <c r="AF3">
-        <v>216.1193333333333</v>
+        <v>216.12</v>
       </c>
       <c r="AG3">
         <v>2.65</v>
@@ -884,7 +884,7 @@
         <v>2.19</v>
       </c>
       <c r="AK3">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -910,7 +910,7 @@
         <v>0.12</v>
       </c>
       <c r="H4">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I4">
         <v>1.55</v>
@@ -937,7 +937,7 @@
         <v>8.6</v>
       </c>
       <c r="Q4">
-        <v>44.17266666666667</v>
+        <v>44.17</v>
       </c>
       <c r="R4">
         <v>16.11</v>
@@ -946,10 +946,10 @@
         <v>24.71</v>
       </c>
       <c r="T4">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
       <c r="U4">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V4">
         <v>105.05</v>
@@ -982,7 +982,7 @@
         <v>85.19</v>
       </c>
       <c r="AF4">
-        <v>216.1193333333333</v>
+        <v>216.12</v>
       </c>
       <c r="AG4">
         <v>10.81</v>
@@ -997,7 +997,7 @@
         <v>2.19</v>
       </c>
       <c r="AK4">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1023,7 +1023,7 @@
         <v>0.08</v>
       </c>
       <c r="H5">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I5">
         <v>1.88</v>
@@ -1035,7 +1035,7 @@
         <v>39.88</v>
       </c>
       <c r="L5">
-        <v>376.6468421052631</v>
+        <v>376.65</v>
       </c>
       <c r="M5">
         <v>1.45</v>
@@ -1050,7 +1050,7 @@
         <v>11.65</v>
       </c>
       <c r="Q5">
-        <v>44.17266666666667</v>
+        <v>44.17</v>
       </c>
       <c r="R5">
         <v>10.91</v>
@@ -1059,10 +1059,10 @@
         <v>22.56</v>
       </c>
       <c r="T5">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
       <c r="U5">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V5">
         <v>105.05</v>
@@ -1095,7 +1095,7 @@
         <v>175.86</v>
       </c>
       <c r="AF5">
-        <v>216.1193333333333</v>
+        <v>216.12</v>
       </c>
       <c r="AG5">
         <v>24.56</v>
@@ -1110,7 +1110,7 @@
         <v>2.19</v>
       </c>
       <c r="AK5">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1136,7 +1136,7 @@
         <v>273.14</v>
       </c>
       <c r="H6">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I6">
         <v>277.27</v>
@@ -1175,7 +1175,7 @@
         <v>2.05</v>
       </c>
       <c r="U6">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V6">
         <v>105.05</v>
@@ -1208,7 +1208,7 @@
         <v>594.09</v>
       </c>
       <c r="AF6">
-        <v>216.1193333333333</v>
+        <v>216.12</v>
       </c>
       <c r="AG6">
         <v>18.19</v>
@@ -1249,7 +1249,7 @@
         <v>431.3</v>
       </c>
       <c r="H7">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I7">
         <v>447.37</v>
@@ -1294,7 +1294,7 @@
         <v>105.05</v>
       </c>
       <c r="W7">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X7">
         <v>300.39</v>
@@ -1312,7 +1312,7 @@
         <v>498.35</v>
       </c>
       <c r="AC7">
-        <v>32.74823529411765</v>
+        <v>32.75</v>
       </c>
       <c r="AD7">
         <v>736.27</v>
@@ -1362,7 +1362,7 @@
         <v>468.6</v>
       </c>
       <c r="H8">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I8">
         <v>508.01</v>
@@ -1407,7 +1407,7 @@
         <v>105.05</v>
       </c>
       <c r="W8">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X8">
         <v>499.53</v>
@@ -1425,7 +1425,7 @@
         <v>408.42</v>
       </c>
       <c r="AC8">
-        <v>32.74823529411765</v>
+        <v>32.75</v>
       </c>
       <c r="AD8">
         <v>1007.79</v>
@@ -1514,13 +1514,13 @@
         <v>2.24</v>
       </c>
       <c r="U9">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V9">
         <v>530.45</v>
       </c>
       <c r="W9">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X9">
         <v>815.95</v>
@@ -1627,13 +1627,13 @@
         <v>302.18</v>
       </c>
       <c r="U10">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V10">
         <v>139.77</v>
       </c>
       <c r="W10">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X10">
         <v>628.97</v>
@@ -1740,13 +1740,13 @@
         <v>302.18</v>
       </c>
       <c r="U11">
-        <v>12.63416666666667</v>
+        <v>12.63</v>
       </c>
       <c r="V11">
         <v>150.08</v>
       </c>
       <c r="W11">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X11">
         <v>585.75</v>
@@ -1776,13 +1776,13 @@
         <v>40.24</v>
       </c>
       <c r="AG11">
-        <v>49.10538461538461</v>
+        <v>49.11</v>
       </c>
       <c r="AH11">
         <v>0.01</v>
       </c>
       <c r="AI11">
-        <v>105.736</v>
+        <v>105.74</v>
       </c>
       <c r="AJ11">
         <v>2.19</v>
@@ -1859,7 +1859,7 @@
         <v>147.24</v>
       </c>
       <c r="W12">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X12">
         <v>540.63</v>
@@ -1889,13 +1889,13 @@
         <v>39.36</v>
       </c>
       <c r="AG12">
-        <v>49.10538461538461</v>
+        <v>49.11</v>
       </c>
       <c r="AH12">
         <v>0.29</v>
       </c>
       <c r="AI12">
-        <v>105.736</v>
+        <v>105.74</v>
       </c>
       <c r="AJ12">
         <v>2.19</v>
@@ -1924,7 +1924,7 @@
         <v>149.58</v>
       </c>
       <c r="G13">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H13">
         <v>1.2</v>
@@ -1972,7 +1972,7 @@
         <v>144.11</v>
       </c>
       <c r="W13">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X13">
         <v>530.3200000000001</v>
@@ -2002,7 +2002,7 @@
         <v>155.92</v>
       </c>
       <c r="AG13">
-        <v>49.10538461538461</v>
+        <v>49.11</v>
       </c>
       <c r="AH13">
         <v>0.29</v>
@@ -2037,7 +2037,7 @@
         <v>91.52</v>
       </c>
       <c r="G14">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H14">
         <v>1.16</v>
@@ -2115,7 +2115,7 @@
         <v>232.54</v>
       </c>
       <c r="AG14">
-        <v>49.10538461538461</v>
+        <v>49.11</v>
       </c>
       <c r="AH14">
         <v>0.31</v>
@@ -2150,7 +2150,7 @@
         <v>48.9</v>
       </c>
       <c r="G15">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H15">
         <v>0.51</v>
@@ -2231,7 +2231,7 @@
         <v>2.62</v>
       </c>
       <c r="AH15">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI15">
         <v>2.26</v>
@@ -2263,7 +2263,7 @@
         <v>6.65</v>
       </c>
       <c r="G16">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H16">
         <v>0.28</v>
@@ -2344,7 +2344,7 @@
         <v>2.04</v>
       </c>
       <c r="AH16">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI16">
         <v>1.51</v>
@@ -2376,7 +2376,7 @@
         <v>-17.01</v>
       </c>
       <c r="G17">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H17">
         <v>0.01</v>
@@ -2457,7 +2457,7 @@
         <v>0.96</v>
       </c>
       <c r="AH17">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI17">
         <v>0.23</v>
@@ -2489,7 +2489,7 @@
         <v>-74.03</v>
       </c>
       <c r="G18">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H18">
         <v>0.01</v>
@@ -2570,7 +2570,7 @@
         <v>0.06</v>
       </c>
       <c r="AH18">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI18">
         <v>0.51</v>
@@ -2602,7 +2602,7 @@
         <v>-112.52</v>
       </c>
       <c r="G19">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H19">
         <v>0.01</v>
@@ -2683,7 +2683,7 @@
         <v>0.13</v>
       </c>
       <c r="AH19">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI19">
         <v>0.15</v>
@@ -2715,16 +2715,16 @@
         <v>25.41</v>
       </c>
       <c r="G20">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H20">
-        <v>5.312499999999999</v>
+        <v>5.31</v>
       </c>
       <c r="I20">
-        <v>95.36000000000001</v>
+        <v>95.36</v>
       </c>
       <c r="J20">
-        <v>171.5683333333333</v>
+        <v>171.57</v>
       </c>
       <c r="K20">
         <v>0.27</v>
@@ -2748,13 +2748,13 @@
         <v>0.01</v>
       </c>
       <c r="R20">
-        <v>34.9325</v>
+        <v>34.93</v>
       </c>
       <c r="S20">
         <v>3.84</v>
       </c>
       <c r="T20">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
       <c r="U20">
         <v>1.79</v>
@@ -2763,7 +2763,7 @@
         <v>105.05</v>
       </c>
       <c r="W20">
-        <v>69.94750000000001</v>
+        <v>69.95</v>
       </c>
       <c r="X20">
         <v>5.63</v>
@@ -2793,19 +2793,19 @@
         <v>165.62</v>
       </c>
       <c r="AG20">
-        <v>49.10538461538461</v>
+        <v>49.11</v>
       </c>
       <c r="AH20">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI20">
-        <v>105.736</v>
+        <v>105.74</v>
       </c>
       <c r="AJ20">
         <v>2.19</v>
       </c>
       <c r="AK20">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2828,7 +2828,7 @@
         <v>26.5</v>
       </c>
       <c r="G21">
-        <v>144.6118181818182</v>
+        <v>144.61</v>
       </c>
       <c r="H21">
         <v>0.42</v>
@@ -2840,7 +2840,7 @@
         <v>0.63</v>
       </c>
       <c r="K21">
-        <v>124.1933333333333</v>
+        <v>124.19</v>
       </c>
       <c r="L21">
         <v>1.98</v>
@@ -2858,16 +2858,16 @@
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>44.17266666666667</v>
+        <v>44.17</v>
       </c>
       <c r="R21">
-        <v>34.9325</v>
+        <v>34.93</v>
       </c>
       <c r="S21">
         <v>2</v>
       </c>
       <c r="T21">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
       <c r="U21">
         <v>2.94</v>
@@ -2906,19 +2906,19 @@
         <v>299.51</v>
       </c>
       <c r="AG21">
-        <v>49.10538461538461</v>
+        <v>49.11</v>
       </c>
       <c r="AH21">
-        <v>0.1891666666666667</v>
+        <v>0.19</v>
       </c>
       <c r="AI21">
-        <v>105.736</v>
+        <v>105.74</v>
       </c>
       <c r="AJ21">
         <v>2.19</v>
       </c>
       <c r="AK21">
-        <v>216.6907142857143</v>
+        <v>216.69</v>
       </c>
     </row>
   </sheetData>
